--- a/data/labelled-skyspark-data/labelled_anomalies_summary_ns.xlsx
+++ b/data/labelled-skyspark-data/labelled_anomalies_summary_ns.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\MDS\capstone\w2020-data599-capstone-projects-ubc-udl\data\labelled-skyspark-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA645431-CFB0-435A-9647-3555FDAFB48C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92D2BDD-CCEC-4D4B-9727-2F6AFC9A7082}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="3 - HW Main Meter Flow" sheetId="1" r:id="rId1"/>
+    <sheet name="1 - HW Main Meter Power" sheetId="1" r:id="rId1"/>
+    <sheet name="2 - HW Main Meter Entering Wate" sheetId="3" r:id="rId2"/>
+    <sheet name="3 - HW Main Meter Flow" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="83">
   <si>
     <t>Photo #</t>
   </si>
@@ -42,9 +44,6 @@
     <t>3b</t>
   </si>
   <si>
-    <t>Groups of points appear to jump above trend</t>
-  </si>
-  <si>
     <t>Sensor</t>
   </si>
   <si>
@@ -117,9 +116,6 @@
     <t>Points drop to zero and go back up</t>
   </si>
   <si>
-    <t>System?</t>
-  </si>
-  <si>
     <t>3n</t>
   </si>
   <si>
@@ -141,9 +137,6 @@
     <t>Questions for Ops:</t>
   </si>
   <si>
-    <t>No specific questions on this sensor. If possible would be good to get ops to comment/validate.</t>
-  </si>
-  <si>
     <t>Minimum daily windows to capture daily pattern - likely going with a 2-3 minimum day window is better. The data is ~minute data so would correspond with a minimum of 1500-4500 points.</t>
   </si>
   <si>
@@ -160,6 +153,129 @@
   </si>
   <si>
     <t>3_all_a, 3_all_b</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>Several points drop to zero (even though the trend is going down)</t>
+  </si>
+  <si>
+    <t>Lines up with 3 - HW Main Meter Flow</t>
+  </si>
+  <si>
+    <t>Groups of points appear to jump above trend - may not be an anomaly</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>Points at zero</t>
+  </si>
+  <si>
+    <t>Points drop to zero</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>Points go down to zero and back up, on and off</t>
+  </si>
+  <si>
+    <t>1e</t>
+  </si>
+  <si>
+    <t>Related to</t>
+  </si>
+  <si>
+    <t>1f</t>
+  </si>
+  <si>
+    <t>Points rapidly drop to zero</t>
+  </si>
+  <si>
+    <t>1g</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>1i</t>
+  </si>
+  <si>
+    <t>1j</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>1l</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>1n</t>
+  </si>
+  <si>
+    <t>1o</t>
+  </si>
+  <si>
+    <t>Rapid spike and drop to zero</t>
+  </si>
+  <si>
+    <t>Points near zero</t>
+  </si>
+  <si>
+    <t>Rapid drop to near zero</t>
+  </si>
+  <si>
+    <t>1p</t>
+  </si>
+  <si>
+    <t>1q</t>
+  </si>
+  <si>
+    <t>1r</t>
+  </si>
+  <si>
+    <t>1s</t>
+  </si>
+  <si>
+    <t>1t</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>1v</t>
+  </si>
+  <si>
+    <t>Large spike</t>
+  </si>
+  <si>
+    <t>Large spike dropping to near zero</t>
+  </si>
+  <si>
+    <t>Lines up with 1 - HW Main Meter Power</t>
+  </si>
+  <si>
+    <t>Trend shows up on 1 - HW Main Meter Power</t>
+  </si>
+  <si>
+    <t>No specific questions on this sensor. If possible would be good to get ops to comment/validate. A lot of these events line up with 1 - HW Main Meter Power indicating they are likely related to operations.</t>
+  </si>
+  <si>
+    <t>1_step_a, 1_step_b</t>
+  </si>
+  <si>
+    <t>1_all_a, 1_all_b</t>
+  </si>
+  <si>
+    <t>A lot of these events line up with 3 - HW Main Meter Flow indicating they are likely related to operations. The sensor also has a lot of spikes, potentially most of these events are not anomalies. Very subjective.</t>
   </si>
 </sst>
 </file>
@@ -487,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,39 +616,39 @@
     <col min="4" max="4" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="B4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -540,13 +656,910 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43838</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43905</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43915</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43931</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43959</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44015</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44038</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44052</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44068</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44178</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44187</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44195</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44198</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44230</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44239</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1">
+        <v>44305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA252DA-0E83-45B5-BC6F-97B020A7C120}">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="3" width="41.109375" customWidth="1"/>
+    <col min="4" max="4" width="42.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1">
+        <v>43838</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1">
+        <v>43905</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="1">
+        <v>43915</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="1">
+        <v>43931</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>43959</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
+        <v>44015</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="1">
+        <v>44026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="1">
+        <v>44038</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
+        <v>44050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="1">
+        <v>44052</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="1">
+        <v>44068</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <v>44080</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="1">
+        <v>44111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="1">
+        <v>44162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="1">
+        <v>44178</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="1">
+        <v>44187</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1">
+        <v>44195</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="1">
+        <v>44198</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1">
+        <v>44230</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="1">
+        <v>44239</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="1">
+        <v>44305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="1">
+        <v>44321</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60E5C72E-B316-4F85-BE0C-DD7F8CC79C06}">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.109375" customWidth="1"/>
+    <col min="2" max="2" width="61.44140625" customWidth="1"/>
+    <col min="3" max="4" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -554,262 +1567,310 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1">
         <v>43838</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1">
         <v>43868</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="1">
         <v>43882</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1">
         <v>43905</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1">
         <v>43915</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1">
         <v>43931</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1">
         <v>43959</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1">
         <v>44015</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
         <v>20</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1">
         <v>44068</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1">
         <v>44144</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1">
         <v>44162</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="1">
         <v>44178</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="1">
         <v>44183</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1">
         <v>44187</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="D21" s="1">
         <v>44195</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D22" s="1">
         <v>44198</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1">
         <v>44230</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" s="1">
         <v>44239</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="1">
         <v>44321</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/data/labelled-skyspark-data/labelled_anomalies_summary_ns.xlsx
+++ b/data/labelled-skyspark-data/labelled_anomalies_summary_ns.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwray\Documents\MDS\capstone\w2020-data599-capstone-projects-ubc-udl\data\labelled-skyspark-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92D2BDD-CCEC-4D4B-9727-2F6AFC9A7082}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FB8E59-BA28-4FF4-A7CE-1D5784137814}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1 - HW Main Meter Power" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="102">
   <si>
     <t>Photo #</t>
   </si>
@@ -269,13 +269,71 @@
     <t>No specific questions on this sensor. If possible would be good to get ops to comment/validate. A lot of these events line up with 1 - HW Main Meter Power indicating they are likely related to operations.</t>
   </si>
   <si>
-    <t>1_step_a, 1_step_b</t>
-  </si>
-  <si>
     <t>1_all_a, 1_all_b</t>
   </si>
   <si>
     <t>A lot of these events line up with 3 - HW Main Meter Flow indicating they are likely related to operations. The sensor also has a lot of spikes, potentially most of these events are not anomalies. Very subjective.</t>
+  </si>
+  <si>
+    <t>- There are periods in the summer of 2017, 2018, 2019  (but not in 2020) that have very distinct patterns compared with the rest of the tract - is this considered normal or are there potential issues with the data or operations? See images 2_q_a, 2_q_b, 2_q_c, 2_q_e.
+- There are also large spikes with temp drop/increases not near these summer periods, is this normal, or does it represent abnormal operations or potential issues with sensors? See images 2_q_e, 2_q_f.</t>
+  </si>
+  <si>
+    <t>2_all_a</t>
+  </si>
+  <si>
+    <t>1_step_a</t>
+  </si>
+  <si>
+    <t>Points with zero values</t>
+  </si>
+  <si>
+    <t>Various</t>
+  </si>
+  <si>
+    <t>2_step_a</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>Points sitting high above trend</t>
+  </si>
+  <si>
+    <t>Various, Dec 2018-Jan2019</t>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>Flatline data</t>
+  </si>
+  <si>
+    <t>2d</t>
+  </si>
+  <si>
+    <t>Cluster of points high above trend</t>
+  </si>
+  <si>
+    <t>2e</t>
+  </si>
+  <si>
+    <t>2f</t>
+  </si>
+  <si>
+    <t>2g</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>2i</t>
+  </si>
+  <si>
+    <t>Minimum daily windows to capture daily pattern - likely going with a 2-3 minimum day window is better. The data is 15min data so would correspond with a minimum of 100-300 points.</t>
   </si>
 </sst>
 </file>
@@ -319,10 +377,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,7 +683,7 @@
         <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -637,7 +699,7 @@
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -645,7 +707,7 @@
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -1050,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA252DA-0E83-45B5-BC6F-97B020A7C120}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1063,39 +1125,45 @@
     <col min="4" max="4" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>0</v>
       </c>
@@ -1112,366 +1180,181 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1">
-        <v>43838</v>
-      </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>46</v>
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="1">
-        <v>43905</v>
-      </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>49</v>
+        <v>43399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1">
         <v>43915</v>
       </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1">
         <v>43931</v>
       </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="1">
-        <v>43959</v>
-      </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>54</v>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1">
-        <v>44015</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>56</v>
+        <v>43975</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D13" s="1">
-        <v>44026</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>57</v>
+        <v>44047</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1">
-        <v>44038</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>58</v>
+        <v>44061</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1">
-        <v>44050</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" t="s">
-        <v>13</v>
-      </c>
-      <c r="D16" s="1">
-        <v>44052</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="1">
-        <v>44068</v>
-      </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="1">
-        <v>44080</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1">
-        <v>44111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" s="1">
-        <v>44162</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="1">
-        <v>44178</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="1">
-        <v>44187</v>
-      </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="1">
-        <v>44195</v>
-      </c>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="1">
-        <v>44198</v>
-      </c>
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="1">
-        <v>44230</v>
-      </c>
-      <c r="E25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="1">
-        <v>44239</v>
-      </c>
-      <c r="E26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="1">
-        <v>44305</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="1">
         <v>44321</v>
       </c>
-      <c r="E28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.3">
@@ -1490,6 +1373,9 @@
       <c r="D37" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
